--- a/DMS_A5_PLAN_DE_PRUEBAS/DMS_A5_PT1_PLAN_DE_PRUEBAS.xlsx
+++ b/DMS_A5_PLAN_DE_PRUEBAS/DMS_A5_PT1_PLAN_DE_PRUEBAS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoséAntonio\Desktop\PROYECTO INDUVIGO\DMS_A5_PLAN_DE_PRUEBAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olakease\Documents\GitHub\induvigo-SIAPP\DMS_A5_PLAN_DE_PRUEBAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Pruebas" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>PLAN DE PRUEBAS</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Nombre del Proyecto</t>
   </si>
   <si>
-    <t>Descripción del Proyecto</t>
-  </si>
-  <si>
     <t>Ambiente de pruebas:</t>
   </si>
   <si>
@@ -78,52 +75,91 @@
     <t>Formato de prueba</t>
   </si>
   <si>
-    <t>Conexión exitosa a internet</t>
-  </si>
-  <si>
-    <t>Conexión fallida a internet</t>
-  </si>
-  <si>
-    <t>Conexión al webservice</t>
-  </si>
-  <si>
-    <t>Conexión al RSS</t>
-  </si>
-  <si>
-    <t>Módulo directorio</t>
-  </si>
-  <si>
-    <t>Contar con Google Maps instalado</t>
-  </si>
-  <si>
-    <t>No contar con Google Maps instalado</t>
-  </si>
-  <si>
-    <t>Contar con una cuenta de Facebook inculada</t>
-  </si>
-  <si>
-    <t>No contar con una cuenta de Facebook vinculada</t>
-  </si>
-  <si>
-    <t>Conexión fallida a internet para publicar en Facebook</t>
-  </si>
-  <si>
-    <t>Integración</t>
-  </si>
-  <si>
     <t>Inicio de sesión exitoso</t>
   </si>
   <si>
     <t>Inicio de sesión fallido</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación móvil a desarrollar estará enfocada hacia la tecnología de dispositivos móviles con sistema operativo iOS. La aplicación deberá poderse descargar de la tienda oficial de Apple, conocida como Apple Store, e instalarse en dispositivos móviles de la marca Apple. </t>
+    <t>Induvigo SIAPP</t>
+  </si>
+  <si>
+    <t>6 horas</t>
+  </si>
+  <si>
+    <t>Oficinas de Industrias Vi-Go</t>
+  </si>
+  <si>
+    <t>Conexión exitosa a la base de datos</t>
+  </si>
+  <si>
+    <t>Conexión fallida a la base de datos</t>
+  </si>
+  <si>
+    <t>Listado exitoso de los proveedores</t>
+  </si>
+  <si>
+    <t>Listado fallido de los proveedores</t>
+  </si>
+  <si>
+    <t>Listado exitoso de los clientes</t>
+  </si>
+  <si>
+    <t>Listado fallido de los clientes</t>
+  </si>
+  <si>
+    <t>Listado exitoso de las herramientas</t>
+  </si>
+  <si>
+    <t>Listado fallido de las herramientas</t>
+  </si>
+  <si>
+    <t>Listado exitoso del personal</t>
+  </si>
+  <si>
+    <t>Listado fallido del personal</t>
+  </si>
+  <si>
+    <t>Listado exitoso de los productos</t>
+  </si>
+  <si>
+    <t>Listado fallido de los productos</t>
+  </si>
+  <si>
+    <t>Listado exitoso de los usuarios</t>
+  </si>
+  <si>
+    <t>Listado fallido de los usuarios</t>
+  </si>
+  <si>
+    <t>Actualización de los usuarios</t>
+  </si>
+  <si>
+    <t>Actualización de los proveedores</t>
+  </si>
+  <si>
+    <t>Actualización de los productos</t>
+  </si>
+  <si>
+    <t>Actualización del personal</t>
+  </si>
+  <si>
+    <t>Actualización de las compras y ventas</t>
+  </si>
+  <si>
+    <t>Generación de cotizaciónes exitosa</t>
+  </si>
+  <si>
+    <t>Generación de cotizaciónes no exitosa</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8 y 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -297,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -390,9 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -782,7 +815,7 @@
     <col min="6" max="6" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -792,7 +825,7 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -800,7 +833,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -808,7 +841,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="17"/>
       <c r="C4" s="3"/>
@@ -816,985 +849,657 @@
       <c r="E4" s="3"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="19"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="22">
         <v>7</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="11">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C15" s="22">
         <v>7</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>4</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="22">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="11">
+        <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" s="22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="11">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="9">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>7</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>8</v>
-      </c>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="4">
+        <v>13</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>9</v>
+      <c r="A22" s="1">
+        <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>10</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="9">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C24" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="9">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>12</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="9">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C26" s="22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="9">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>14</v>
-      </c>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="4">
         <v>19</v>
       </c>
+      <c r="B27" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="C27" s="22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="9">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>15</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="1">
         <v>20</v>
       </c>
+      <c r="B28" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="C28" s="22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="9">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C29" s="22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="9">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="22">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C30" s="23">
+        <v>6</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="10">
-        <v>5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="22">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C31" s="23">
+        <v>5</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="10">
-        <v>6</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="22">
+        <v>41</v>
+      </c>
+      <c r="C32" s="23">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>25</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="23">
         <v>2</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>20</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="22">
+      <c r="D33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>26</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="23">
         <v>2</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>21</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="22">
-        <v>2</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="10">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>22</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="23">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="10">
-        <v>8</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>23</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="23">
-        <v>5</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="10">
-        <v>8</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>24</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="23">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="10">
-        <v>8</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>25</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="23">
-        <v>5</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="10">
-        <v>8</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>26</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="23">
-        <v>5</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="10">
-        <v>9</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>27</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="23">
-        <v>5</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="10">
-        <v>9</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>28</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="23">
-        <v>5</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="10">
-        <v>9</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>29</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="23">
-        <v>5</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="10">
-        <v>9</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>30</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="23">
-        <v>6</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="10">
-        <v>10</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>31</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="23">
-        <v>6</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>32</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="23">
-        <v>6</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>33</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="23">
-        <v>6</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="10">
-        <v>11</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>34</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="23">
-        <v>3</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="10">
-        <v>12</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>35</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="23">
-        <v>3</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="10">
-        <v>12</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>36</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="23">
-        <v>3</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="10">
-        <v>12</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>37</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="23">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="10">
-        <v>12</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>38</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="20">
-        <v>3</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>39</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="23">
-        <v>3</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>40</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="23">
-        <v>3</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>41</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="23">
-        <v>3</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>42</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="23">
-        <v>3</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>43</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="20">
-        <v>3</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="10">
-        <v>13</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B11:F11"/>
+  <mergeCells count="5">
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B6:G7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D51">
       <formula1>"Elegir opción…, Integración, Sistema"</formula1>
     </dataValidation>
   </dataValidations>
